--- a/data/trans_orig/P21-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>473628</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>452213</v>
+        <v>453788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>491584</v>
+        <v>491537</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8108104973933082</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7741506224101823</v>
+        <v>0.7768465723389885</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8415503965190554</v>
+        <v>0.8414699290091349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>609</v>
@@ -765,19 +765,19 @@
         <v>637419</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>607603</v>
+        <v>609285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>664304</v>
+        <v>664992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.691093831343868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6587674371138861</v>
+        <v>0.6605913125183982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7202429595275537</v>
+        <v>0.7209885312309652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1073</v>
@@ -786,19 +786,19 @@
         <v>1111046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1075773</v>
+        <v>1070768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1144887</v>
+        <v>1143013</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7375144377918363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7140997847420153</v>
+        <v>0.7107775952083579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.759977968763461</v>
+        <v>0.7587336565767805</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3063</v>
+        <v>3598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14412</v>
+        <v>16270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01282731522609625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005243509771506769</v>
+        <v>0.006159316961669622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02467127876815831</v>
+        <v>0.02785361345913149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -836,19 +836,19 @@
         <v>17478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10642</v>
+        <v>10321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27954</v>
+        <v>27600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01894929846924537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01153759261795034</v>
+        <v>0.0111901352432271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0303075575221581</v>
+        <v>0.02992422785328124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -857,19 +857,19 @@
         <v>24971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16729</v>
+        <v>15303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37156</v>
+        <v>37609</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01657547547375768</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01110440864445041</v>
+        <v>0.01015823913156412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02466449290369504</v>
+        <v>0.02496485515515518</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>103020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86162</v>
+        <v>84938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123267</v>
+        <v>122427</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1763621873805955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1475024908072272</v>
+        <v>0.1454073124919622</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.21102302559846</v>
+        <v>0.2095851286247622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -907,19 +907,19 @@
         <v>267437</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>240116</v>
+        <v>238645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>295340</v>
+        <v>292114</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2899568701868866</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2603360065021421</v>
+        <v>0.2587404719577546</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.320209920066743</v>
+        <v>0.3167121526658817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>363</v>
@@ -928,19 +928,19 @@
         <v>370457</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>337978</v>
+        <v>336446</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>405692</v>
+        <v>407996</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.245910086734406</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2243503298467549</v>
+        <v>0.2233332432974125</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.269298945904966</v>
+        <v>0.2708281278365257</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>895838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>870111</v>
+        <v>870457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>919709</v>
+        <v>921450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8311006771143868</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8072320433799555</v>
+        <v>0.8075533955283377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8532465798224295</v>
+        <v>0.8548610052589489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>806</v>
@@ -1053,19 +1053,19 @@
         <v>825834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>796347</v>
+        <v>797063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>852261</v>
+        <v>850585</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7809023429185574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7530193566697863</v>
+        <v>0.753696443862098</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8058919247175116</v>
+        <v>0.8043072286524225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1680</v>
@@ -1074,19 +1074,19 @@
         <v>1721672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1679756</v>
+        <v>1681376</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1755386</v>
+        <v>1755918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.806240768103605</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.786611590141907</v>
+        <v>0.7873703803213126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8220285722193656</v>
+        <v>0.8222777006174662</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>3424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7913</v>
+        <v>8431</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003176695346833909</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0008343164119325372</v>
+        <v>0.000825041790730027</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007341597701920455</v>
+        <v>0.007821483621371786</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1124,19 +1124,19 @@
         <v>5960</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2714</v>
+        <v>2809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12931</v>
+        <v>13045</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005635842964403625</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002566113781190867</v>
+        <v>0.002656218968563746</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01222749188935861</v>
+        <v>0.01233514327405057</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1145,19 +1145,19 @@
         <v>9384</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4458</v>
+        <v>4649</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16221</v>
+        <v>16907</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00439454822972784</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00208783897572491</v>
+        <v>0.002177120295393606</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007596036372726002</v>
+        <v>0.007917133761626437</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>178631</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154218</v>
+        <v>153037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203578</v>
+        <v>204031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1657226275387793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1430734125292715</v>
+        <v>0.141978200702134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1888665499184403</v>
+        <v>0.189286891218878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -1195,19 +1195,19 @@
         <v>225744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200175</v>
+        <v>201847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253979</v>
+        <v>253911</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.213461814117039</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1892839001203175</v>
+        <v>0.190865342082292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2401602813444887</v>
+        <v>0.2400963178304341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>393</v>
@@ -1216,19 +1216,19 @@
         <v>404375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371460</v>
+        <v>369103</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>443361</v>
+        <v>443106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1893646836666671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1739505652452842</v>
+        <v>0.1728469499419238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2076210463472078</v>
+        <v>0.2075017199498707</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>941932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>915931</v>
+        <v>915712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>967579</v>
+        <v>965044</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8398150763624802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.816633379158215</v>
+        <v>0.81643828244918</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8626823882143579</v>
+        <v>0.8604221482745135</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>747</v>
@@ -1341,19 +1341,19 @@
         <v>756997</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>730788</v>
+        <v>726423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>785189</v>
+        <v>782120</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7623345948381811</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.735939843262289</v>
+        <v>0.7315449548235926</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7907252744179454</v>
+        <v>0.787634448522876</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1676</v>
@@ -1362,19 +1362,19 @@
         <v>1698930</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1663419</v>
+        <v>1660925</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1735875</v>
+        <v>1733912</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8034307540971057</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7866376920220457</v>
+        <v>0.7854582098809587</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8209023888827018</v>
+        <v>0.8199739087168475</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>5037</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1911</v>
+        <v>1963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11195</v>
+        <v>11216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004490674296792267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001703793369168847</v>
+        <v>0.001750131352544208</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009981361061901105</v>
+        <v>0.009999911280581485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1412,19 +1412,19 @@
         <v>8216</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3707</v>
+        <v>3413</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15534</v>
+        <v>15045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00827375819034233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003733618592059403</v>
+        <v>0.003437001164525391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0156439932395171</v>
+        <v>0.01515070918285557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1433,19 +1433,19 @@
         <v>13253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6998</v>
+        <v>7108</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21998</v>
+        <v>22059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006267185501058664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00330947963791501</v>
+        <v>0.003361333033242466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01040315339628148</v>
+        <v>0.01043194233293236</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>174626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148536</v>
+        <v>151810</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201125</v>
+        <v>200898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1556942493407275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1324331013449465</v>
+        <v>0.1353520366554777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1793202868368292</v>
+        <v>0.179118405371666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -1483,19 +1483,19 @@
         <v>227786</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200824</v>
+        <v>203828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>253769</v>
+        <v>257845</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2293916469714766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2022397532600808</v>
+        <v>0.2052646130266199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2555579799114517</v>
+        <v>0.2596628801804557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>395</v>
@@ -1504,19 +1504,19 @@
         <v>402412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>367676</v>
+        <v>367543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>438301</v>
+        <v>438815</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1903020604018356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1738755319584074</v>
+        <v>0.1738127434358974</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2072742754126066</v>
+        <v>0.2075175737768643</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>365949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>345335</v>
+        <v>349207</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>380465</v>
+        <v>381451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8199339345980645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7737465132642268</v>
+        <v>0.78242187575498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8524581252256785</v>
+        <v>0.854667090870167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -1629,19 +1629,19 @@
         <v>282088</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>266396</v>
+        <v>267495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>294753</v>
+        <v>294440</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8268530497952309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.780856870482039</v>
+        <v>0.7840808809346559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8639779942811011</v>
+        <v>0.8630594515365684</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>639</v>
@@ -1650,19 +1650,19 @@
         <v>648036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>624399</v>
+        <v>626582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>668354</v>
+        <v>670601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8229315136947936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7929145857307612</v>
+        <v>0.7956870741097523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8487320181286642</v>
+        <v>0.8515865324959568</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>3656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11802</v>
+        <v>12002</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0081907690418885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002262456432969243</v>
+        <v>0.002266184816970854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02644336771092547</v>
+        <v>0.02689160594975124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1700,19 +1700,19 @@
         <v>3799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9548</v>
+        <v>9310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01113478383942512</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002852375630618642</v>
+        <v>0.002837948587723458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02798785571987176</v>
+        <v>0.0272895284204742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1721,19 +1721,19 @@
         <v>7454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2992</v>
+        <v>3074</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15192</v>
+        <v>15360</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009466209176368541</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003800122622680494</v>
+        <v>0.003904148330903153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01929205900203681</v>
+        <v>0.01950594575089749</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>76711</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62143</v>
+        <v>61816</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96514</v>
+        <v>92761</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.171875296360047</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1392358679048174</v>
+        <v>0.1385036685292334</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.216247007802489</v>
+        <v>0.2078381714245167</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -1771,19 +1771,19 @@
         <v>55272</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43518</v>
+        <v>42652</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70903</v>
+        <v>70773</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.162012166365344</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1275610988662293</v>
+        <v>0.1250217654580005</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2078306505596532</v>
+        <v>0.207450510661381</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -1792,19 +1792,19 @@
         <v>131982</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>112581</v>
+        <v>111158</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>154580</v>
+        <v>153501</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1676022771288379</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1429646554829371</v>
+        <v>0.1411583698872649</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1962990996626356</v>
+        <v>0.1949291954306911</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2677346</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2635458</v>
+        <v>2635443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2722275</v>
+        <v>2720362</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8289142015682019</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8159454302259642</v>
+        <v>0.8159406929875562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8428242226647494</v>
+        <v>0.8422319961199971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2442</v>
@@ -1917,19 +1917,19 @@
         <v>2502338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2456280</v>
+        <v>2453365</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2553629</v>
+        <v>2554376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7550743591111406</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7411765044623203</v>
+        <v>0.7402970699646891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7705515720191866</v>
+        <v>0.7707768952403155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5068</v>
@@ -1938,19 +1938,19 @@
         <v>5179684</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5110082</v>
+        <v>5108360</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5245478</v>
+        <v>5238760</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7915198945873403</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7808837759706423</v>
+        <v>0.7806207281465696</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.801574018789096</v>
+        <v>0.8005473642066464</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>19609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12248</v>
+        <v>11975</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30342</v>
+        <v>30433</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.006071151687566666</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003791864277079979</v>
+        <v>0.003707532229623406</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.00939409978742296</v>
+        <v>0.009422295959531804</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -1988,19 +1988,19 @@
         <v>35452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25043</v>
+        <v>24354</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52017</v>
+        <v>47786</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01069762748569678</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007556595537968848</v>
+        <v>0.0073486236681081</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01569608709238169</v>
+        <v>0.01441935201636892</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -2009,19 +2009,19 @@
         <v>55062</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41259</v>
+        <v>41511</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72893</v>
+        <v>73625</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008414112485937921</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006304933798961517</v>
+        <v>0.006343402993319302</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01113896380625335</v>
+        <v>0.01125085731986921</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>532988</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>492495</v>
+        <v>486156</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>575471</v>
+        <v>571163</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1650146467442314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1524778899509869</v>
+        <v>0.1505152106336438</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1781676191983089</v>
+        <v>0.1768337388271538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>757</v>
@@ -2059,19 +2059,19 @@
         <v>776238</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>724683</v>
+        <v>727632</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>820154</v>
+        <v>825224</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2342280134031626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2186712115182663</v>
+        <v>0.2195610864042785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2474796272095994</v>
+        <v>0.2490094304057522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1279</v>
@@ -2080,19 +2080,19 @@
         <v>1309226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1244958</v>
+        <v>1249232</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1370667</v>
+        <v>1377928</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2000659929267218</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1902450113858103</v>
+        <v>0.1908980975113682</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2094549479452005</v>
+        <v>0.2105644085195193</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>806490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>778929</v>
+        <v>776881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>835676</v>
+        <v>835957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7737936939527961</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.747350835198456</v>
+        <v>0.7453855424042547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8017968570753337</v>
+        <v>0.8020668277438482</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>664</v>
@@ -2445,19 +2445,19 @@
         <v>724613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>695474</v>
+        <v>688582</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>758224</v>
+        <v>756616</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.647577399597112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6215370381490607</v>
+        <v>0.6153771332540621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6776158271506406</v>
+        <v>0.6761787138376733</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1417</v>
@@ -2466,19 +2466,19 @@
         <v>1531102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1490598</v>
+        <v>1484826</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1574703</v>
+        <v>1575516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7084457082598635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6897041240587091</v>
+        <v>0.6870334195957662</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7286198203910497</v>
+        <v>0.7289961150718349</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>12900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7176</v>
+        <v>7074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21530</v>
+        <v>21825</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01237670345702815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006884702584906334</v>
+        <v>0.006787542688636878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02065688237688448</v>
+        <v>0.02093992041861248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2516,19 +2516,19 @@
         <v>21189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13634</v>
+        <v>13754</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32131</v>
+        <v>32290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01893635954102318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01218489082147952</v>
+        <v>0.01229150293292403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0287154712265945</v>
+        <v>0.02885716494551261</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -2537,19 +2537,19 @@
         <v>34089</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22935</v>
+        <v>22826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47152</v>
+        <v>45192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01577293937185764</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01061220937886681</v>
+        <v>0.01056143490134289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02181753837373874</v>
+        <v>0.02091025260144332</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>222865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>195177</v>
+        <v>195482</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>249665</v>
+        <v>251781</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2138296025901758</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1872644637177023</v>
+        <v>0.1875568186520059</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2395437785651058</v>
+        <v>0.2415735534554679</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>346</v>
@@ -2587,19 +2587,19 @@
         <v>373157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>341507</v>
+        <v>341055</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>402760</v>
+        <v>407620</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3334862408618648</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.305200901394118</v>
+        <v>0.3047967278563731</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3599421122570249</v>
+        <v>0.3642853234100166</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>556</v>
@@ -2608,19 +2608,19 @@
         <v>596022</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>552577</v>
+        <v>555827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>635577</v>
+        <v>641498</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2757813523682788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2556789450431393</v>
+        <v>0.2571829309556263</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2940835134700955</v>
+        <v>0.2968231067921935</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>771279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>742982</v>
+        <v>743684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798940</v>
+        <v>796931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7901858365134503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7611948049403872</v>
+        <v>0.7619143476473716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8185249665985569</v>
+        <v>0.8164666800551431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>758</v>
@@ -2733,19 +2733,19 @@
         <v>811568</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>782905</v>
+        <v>780460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>840791</v>
+        <v>840715</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7424570016242847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7162348996901271</v>
+        <v>0.7139978137119046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7691911495934188</v>
+        <v>0.7691219415897402</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1493</v>
@@ -2754,19 +2754,19 @@
         <v>1582848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1543685</v>
+        <v>1545079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1623814</v>
+        <v>1623796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7649718832479498</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7460451150528333</v>
+        <v>0.7467185890015638</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7847704323013893</v>
+        <v>0.7847615399082001</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>8941</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4646</v>
+        <v>3988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18040</v>
+        <v>15982</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009160483676948251</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004760275699694713</v>
+        <v>0.004085862648497837</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01848194391817242</v>
+        <v>0.01637361183113661</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -2804,19 +2804,19 @@
         <v>12536</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6461</v>
+        <v>6584</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21522</v>
+        <v>22419</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01146862337143122</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005911211827159543</v>
+        <v>0.006023554010883219</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0196894436974136</v>
+        <v>0.0205098862135846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -2825,19 +2825,19 @@
         <v>21477</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13209</v>
+        <v>13587</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31868</v>
+        <v>33342</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01037981631982722</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006383705555988143</v>
+        <v>0.006566383506291593</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01540136063014739</v>
+        <v>0.01611393361347829</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>195853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169440</v>
+        <v>171426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223590</v>
+        <v>224642</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2006536798096014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1735935358684885</v>
+        <v>0.1756284028715828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2290710438685606</v>
+        <v>0.2301485833321343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -2875,19 +2875,19 @@
         <v>268980</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>240403</v>
+        <v>240315</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>296147</v>
+        <v>298537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.246074375004284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2199306688556153</v>
+        <v>0.2198503065219447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2709283363711353</v>
+        <v>0.2731146420635628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>429</v>
@@ -2896,19 +2896,19 @@
         <v>464833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>425793</v>
+        <v>424729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>505161</v>
+        <v>502221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2246483004322229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2057808256789227</v>
+        <v>0.2052667562417379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2441383933394898</v>
+        <v>0.2427174093475291</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>703900</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>678395</v>
+        <v>678751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>727212</v>
+        <v>729536</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7952642658502308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.766448450266011</v>
+        <v>0.7668511722752172</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8216019788862157</v>
+        <v>0.8242275638673472</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>639</v>
@@ -3021,19 +3021,19 @@
         <v>680253</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>654726</v>
+        <v>653486</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>702728</v>
+        <v>703414</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7775767922096962</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7483974195775477</v>
+        <v>0.7469802928997137</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8032670798766826</v>
+        <v>0.8040509384940906</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1296</v>
@@ -3042,19 +3042,19 @@
         <v>1384153</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1348896</v>
+        <v>1347444</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1420667</v>
+        <v>1419377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7864721770840982</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7664389310227951</v>
+        <v>0.7656140082141164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8072191298331177</v>
+        <v>0.8064862033219161</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>9366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4269</v>
+        <v>4336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17265</v>
+        <v>16891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01058173919778227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004822954406460361</v>
+        <v>0.004898247776291834</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01950639688534012</v>
+        <v>0.01908369757818704</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -3092,19 +3092,19 @@
         <v>12493</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6387</v>
+        <v>6189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20966</v>
+        <v>21669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01428051453992996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007300355172275162</v>
+        <v>0.007074717124724556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02396526168530084</v>
+        <v>0.02476884031642803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3113,19 +3113,19 @@
         <v>21859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13957</v>
+        <v>13523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32917</v>
+        <v>33320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01242032631288153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007930265171531115</v>
+        <v>0.007683508747246191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01870329337844364</v>
+        <v>0.01893206873819397</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>171849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147787</v>
+        <v>148087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195792</v>
+        <v>196006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1941539949519869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1669688760260458</v>
+        <v>0.167308619151439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.221205595353687</v>
+        <v>0.2214471720642493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -3163,19 +3163,19 @@
         <v>182091</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161367</v>
+        <v>159576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206846</v>
+        <v>208599</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2081426932503739</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.184453504007316</v>
+        <v>0.1824066828624856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2364396339271466</v>
+        <v>0.2384436689273595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -3184,19 +3184,19 @@
         <v>353940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>319638</v>
+        <v>322355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>391561</v>
+        <v>391923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2011074966030202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1816175397843554</v>
+        <v>0.1831610827519892</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2224838328912908</v>
+        <v>0.2226893707623598</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>420284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>401797</v>
+        <v>401653</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>436822</v>
+        <v>437879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8355161088937212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7987643795273836</v>
+        <v>0.798477545007873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8683933086316133</v>
+        <v>0.8704943029327814</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -3309,19 +3309,19 @@
         <v>349627</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>329443</v>
+        <v>329184</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>366772</v>
+        <v>366222</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7722535560492477</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7276703486992788</v>
+        <v>0.7271002506356602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8101234446702726</v>
+        <v>0.8089095336493567</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>701</v>
@@ -3330,19 +3330,19 @@
         <v>769910</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>743906</v>
+        <v>744496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>795681</v>
+        <v>794149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8055491073763419</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7783416962616773</v>
+        <v>0.7789587426813802</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8325125374096641</v>
+        <v>0.8309103902860864</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>3857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9104</v>
+        <v>9439</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007668414702459292</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00203517659917057</v>
+        <v>0.002015609758100982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01809771751536246</v>
+        <v>0.01876550798732886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3380,19 +3380,19 @@
         <v>7072</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2985</v>
+        <v>3110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14173</v>
+        <v>13927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01562006385545905</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006592451718436737</v>
+        <v>0.006868297046430979</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0313062591939901</v>
+        <v>0.0307627996007353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3401,19 +3401,19 @@
         <v>10929</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5943</v>
+        <v>5664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19290</v>
+        <v>19043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01143505186013809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006218016784753556</v>
+        <v>0.005925795778361441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02018263428835337</v>
+        <v>0.01992499507350606</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>78882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61843</v>
+        <v>61563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96351</v>
+        <v>97077</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1568154764038195</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1229436135807229</v>
+        <v>0.1223862087424993</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1915434295015378</v>
+        <v>0.1929876250350687</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -3451,19 +3451,19 @@
         <v>96037</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79097</v>
+        <v>79479</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>115386</v>
+        <v>115930</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2121263800952932</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.174708489006689</v>
+        <v>0.1755531655330597</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2548628106001631</v>
+        <v>0.256066163659567</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -3472,19 +3472,19 @@
         <v>174919</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>150046</v>
+        <v>151313</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>200815</v>
+        <v>199635</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1830158407635201</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1569913262435091</v>
+        <v>0.1583169861762688</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2101110028532281</v>
+        <v>0.2088761196977315</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2701952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2651292</v>
+        <v>2649702</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2746349</v>
+        <v>2746764</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7931837764414871</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7783121269679764</v>
+        <v>0.7778452454595448</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8062170348687454</v>
+        <v>0.8063386387912689</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2378</v>
@@ -3597,19 +3597,19 @@
         <v>2566060</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2512526</v>
+        <v>2517054</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2624049</v>
+        <v>2625005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7249544299429859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7098300022330667</v>
+        <v>0.7111092166603289</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7413373076268688</v>
+        <v>0.7416074024017674</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4907</v>
@@ -3618,19 +3618,19 @@
         <v>5268013</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5198138</v>
+        <v>5193711</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5339834</v>
+        <v>5345582</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7584151477192864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7483555534876947</v>
+        <v>0.7477181035766189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7687549886290903</v>
+        <v>0.7695824446635917</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>35064</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25231</v>
+        <v>24522</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48399</v>
+        <v>47042</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01029349033542658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007406897772944665</v>
+        <v>0.007198597387391681</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01420793612926099</v>
+        <v>0.0138095042093593</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -3668,19 +3668,19 @@
         <v>53290</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39792</v>
+        <v>39473</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>68751</v>
+        <v>70207</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01505532435705898</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01124177290345515</v>
+        <v>0.01115176022971629</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01942328154471037</v>
+        <v>0.01983474702361114</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>84</v>
@@ -3689,19 +3689,19 @@
         <v>88354</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71396</v>
+        <v>71140</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109886</v>
+        <v>108704</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01272004793316815</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01027862911876076</v>
+        <v>0.0102417908136621</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01581983450170979</v>
+        <v>0.01564969126512903</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>669448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>624641</v>
+        <v>624113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>718244</v>
+        <v>718230</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1965227332230863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1833694185787205</v>
+        <v>0.1832144063332798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2108475015409258</v>
+        <v>0.210843263947123</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>854</v>
@@ -3739,19 +3739,19 @@
         <v>920266</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>866862</v>
+        <v>864884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>974129</v>
+        <v>971160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2599902456999552</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2449029091980061</v>
+        <v>0.2443441068679441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2752074861002415</v>
+        <v>0.2743686648155813</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1480</v>
@@ -3760,19 +3760,19 @@
         <v>1589713</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1520588</v>
+        <v>1513660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1661763</v>
+        <v>1665197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2288648043475455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2189131312925229</v>
+        <v>0.2179156435749275</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2392375455212895</v>
+        <v>0.2397318275221481</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>916778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>890555</v>
+        <v>889084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>942664</v>
+        <v>942474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8136615277316437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7903881105430831</v>
+        <v>0.789083020351579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8366362763007796</v>
+        <v>0.8364678111008397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>925</v>
@@ -4125,19 +4125,19 @@
         <v>974612</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>942099</v>
+        <v>941469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1002840</v>
+        <v>1001995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7743046354445039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7484736281232368</v>
+        <v>0.7479731579116908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7967309446598229</v>
+        <v>0.7960600287188161</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1794</v>
@@ -4146,19 +4146,19 @@
         <v>1891389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1851681</v>
+        <v>1851380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1930640</v>
+        <v>1930463</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7928944648362249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7762483068585424</v>
+        <v>0.7761221135235294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8093493254314351</v>
+        <v>0.8092747971594149</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>8609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4055</v>
+        <v>3888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16207</v>
+        <v>16301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007640269498214379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003598785649638176</v>
+        <v>0.003450796900676216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01438449474073349</v>
+        <v>0.01446779522909281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -4196,19 +4196,19 @@
         <v>22609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13078</v>
+        <v>14426</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34959</v>
+        <v>35446</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0179621008124952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.010390182622494</v>
+        <v>0.01146098358716163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02777413326092069</v>
+        <v>0.02816104589459276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -4217,19 +4217,19 @@
         <v>31217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21398</v>
+        <v>20294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46010</v>
+        <v>44173</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01308668834997961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008970419022407698</v>
+        <v>0.008507709463347377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01928793003551177</v>
+        <v>0.01851774995378519</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>201345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>174347</v>
+        <v>175492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>227089</v>
+        <v>227637</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.178698202770142</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.154736854941462</v>
+        <v>0.1557534259624346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2015465872395229</v>
+        <v>0.2020333867460988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -4267,19 +4267,19 @@
         <v>261472</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>234455</v>
+        <v>232657</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>292611</v>
+        <v>292660</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2077332637430009</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1862683253501476</v>
+        <v>0.1848397999374667</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2324724264003155</v>
+        <v>0.2325114193055572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>431</v>
@@ -4288,19 +4288,19 @@
         <v>462817</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>422080</v>
+        <v>425486</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>501494</v>
+        <v>502674</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1940188468137954</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1769411556383318</v>
+        <v>0.1783691637856433</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2102329130715687</v>
+        <v>0.2107276032551532</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>755546</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>731082</v>
+        <v>730859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>777549</v>
+        <v>777710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8346033075616381</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8075801925227114</v>
+        <v>0.8073333889627737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8589090223243013</v>
+        <v>0.8590866829171339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>765</v>
@@ -4413,19 +4413,19 @@
         <v>802833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>774043</v>
+        <v>771848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>826930</v>
+        <v>826076</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7986771105378551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7700352812336914</v>
+        <v>0.7678518456068822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8226484685774421</v>
+        <v>0.8217993690726875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1499</v>
@@ -4434,19 +4434,19 @@
         <v>1558380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1521419</v>
+        <v>1522396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1590883</v>
+        <v>1595121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8157006373509436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7963542286162435</v>
+        <v>0.7968658504232569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.83271367180959</v>
+        <v>0.8349318744850335</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>17256</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10435</v>
+        <v>10547</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28033</v>
+        <v>27205</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01906139559340726</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01152642344887009</v>
+        <v>0.01165084432699772</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03096605640304501</v>
+        <v>0.0300514017170468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -4484,19 +4484,19 @@
         <v>13502</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7032</v>
+        <v>7431</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22935</v>
+        <v>22030</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01343175417108286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006995541531501705</v>
+        <v>0.007392929927592275</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0228162052727488</v>
+        <v>0.02191574634784505</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -4505,19 +4505,19 @@
         <v>30757</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>21616</v>
+        <v>21193</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>45484</v>
+        <v>44418</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01609934383100622</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01131466991533906</v>
+        <v>0.01109308494196935</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02380787575484896</v>
+        <v>0.02324960882685475</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>132474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112027</v>
+        <v>111382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156280</v>
+        <v>156344</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1463352968449546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1237491996080849</v>
+        <v>0.1230371921417966</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1726329859778126</v>
+        <v>0.172703164077621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -4555,19 +4555,19 @@
         <v>188869</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>163569</v>
+        <v>165991</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>216152</v>
+        <v>218175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1878911352910621</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1627220184325643</v>
+        <v>0.1651316688573476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2150325994594496</v>
+        <v>0.2170459664658408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>300</v>
@@ -4576,19 +4576,19 @@
         <v>321343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288886</v>
+        <v>287399</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>356818</v>
+        <v>354863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1682000188180502</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1512109875486969</v>
+        <v>0.1504327745815391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1867686614657965</v>
+        <v>0.1857454045607338</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>705608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>684945</v>
+        <v>682379</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>725691</v>
+        <v>724556</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8607049182633089</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8354991927458547</v>
+        <v>0.8323694520865409</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8852017929104468</v>
+        <v>0.8838175120006547</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>576</v>
@@ -4701,19 +4701,19 @@
         <v>611474</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>585790</v>
+        <v>588602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>632995</v>
+        <v>633847</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7939432736731583</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7605945966874822</v>
+        <v>0.7642454241272273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8218860246415569</v>
+        <v>0.8229919117830201</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1253</v>
@@ -4722,19 +4722,19 @@
         <v>1317083</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1285021</v>
+        <v>1281914</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1346101</v>
+        <v>1343167</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8283660245545474</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8082011741044132</v>
+        <v>0.8062471185265861</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8466164754059432</v>
+        <v>0.8447713036503635</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>10174</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5337</v>
+        <v>4912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19106</v>
+        <v>18786</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.012410435852684</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006510171194064547</v>
+        <v>0.005991218335197955</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02330512940222013</v>
+        <v>0.02291578961137533</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4772,19 +4772,19 @@
         <v>11268</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5594</v>
+        <v>5765</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20841</v>
+        <v>20623</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01463101543230801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007263595862387159</v>
+        <v>0.007485671064098347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02706001450617723</v>
+        <v>0.02677756406067463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -4793,19 +4793,19 @@
         <v>21443</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13413</v>
+        <v>14183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32225</v>
+        <v>33733</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01348606973555424</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008435881706916715</v>
+        <v>0.008920564776748728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02026739550027862</v>
+        <v>0.02121613272245748</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>104020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85440</v>
+        <v>86020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125694</v>
+        <v>124700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1268846458840071</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1042196603455828</v>
+        <v>0.1049276812497771</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1533222396904677</v>
+        <v>0.1521097895367128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -4843,19 +4843,19 @@
         <v>147431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125412</v>
+        <v>126285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>169425</v>
+        <v>169861</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1914257108945337</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1628360368730135</v>
+        <v>0.1639698528004556</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2199825437133805</v>
+        <v>0.2205482432709637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>237</v>
@@ -4864,19 +4864,19 @@
         <v>251452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>223430</v>
+        <v>225004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>281687</v>
+        <v>283539</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1581479057098983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.140523891805665</v>
+        <v>0.1415138826214379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1771640136699487</v>
+        <v>0.1783287556213045</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>418890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>399280</v>
+        <v>400522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>434399</v>
+        <v>434805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.828263652453554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7894890104080667</v>
+        <v>0.7919455128136031</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8589298343321123</v>
+        <v>0.8597318531627793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>349</v>
@@ -4989,19 +4989,19 @@
         <v>376357</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>357202</v>
+        <v>356143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>396620</v>
+        <v>394752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7714164674211862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7321543006212391</v>
+        <v>0.7299832970981179</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8129484766421187</v>
+        <v>0.8091206517997658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>739</v>
@@ -5010,19 +5010,19 @@
         <v>795248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>770278</v>
+        <v>766806</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>819188</v>
+        <v>820215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8003511688095738</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7752208026229305</v>
+        <v>0.77172645710753</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8244446251382174</v>
+        <v>0.8254785263825761</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>9368</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4825</v>
+        <v>4091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17497</v>
+        <v>16797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01852251024079936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009541137563409685</v>
+        <v>0.008088517652776635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03459580644646372</v>
+        <v>0.03321241384262904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -5060,19 +5060,19 @@
         <v>12345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6046</v>
+        <v>6006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20956</v>
+        <v>20858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02530433435692728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01239153728848509</v>
+        <v>0.01231072008711619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04295298412658364</v>
+        <v>0.04275235311244422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -5081,19 +5081,19 @@
         <v>21713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13660</v>
+        <v>14527</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32068</v>
+        <v>34369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0218524474155247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01374722455316944</v>
+        <v>0.01462036241101436</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0322740148742864</v>
+        <v>0.03458992728331101</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>77487</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61102</v>
+        <v>61629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95437</v>
+        <v>96474</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1532138373056466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1208153631457443</v>
+        <v>0.1218584957904376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.188706321634327</v>
+        <v>0.1907562214724824</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>94</v>
@@ -5131,19 +5131,19 @@
         <v>99175</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80983</v>
+        <v>80857</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118511</v>
+        <v>118448</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2032791982218865</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1659902057485577</v>
+        <v>0.1657316720681174</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2429102242396365</v>
+        <v>0.2427815368789127</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>165</v>
@@ -5152,19 +5152,19 @@
         <v>176663</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>153175</v>
+        <v>152532</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>201350</v>
+        <v>201222</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1777963837749015</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.154157760287226</v>
+        <v>0.1535108581052502</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2026415603152474</v>
+        <v>0.2025132485322263</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2796822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2754837</v>
+        <v>2749404</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2842986</v>
+        <v>2840217</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8329938566874795</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8204892130551671</v>
+        <v>0.8188712053817386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8467431272274026</v>
+        <v>0.8459186001094404</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2615</v>
@@ -5277,19 +5277,19 @@
         <v>2765278</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2713539</v>
+        <v>2708350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2818044</v>
+        <v>2811750</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7851552777790022</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7704650511874614</v>
+        <v>0.768991546477942</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8001373518625899</v>
+        <v>0.7983504139510773</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5285</v>
@@ -5298,19 +5298,19 @@
         <v>5562100</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5491236</v>
+        <v>5496972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5627661</v>
+        <v>5630795</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8085029823880961</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7982022942094174</v>
+        <v>0.7990361583980525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8180330006287568</v>
+        <v>0.8184884989859815</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>45406</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32096</v>
+        <v>32617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59180</v>
+        <v>58656</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0135235708817266</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009559419246699355</v>
+        <v>0.00971444145562333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01762582050460959</v>
+        <v>0.01746976221333188</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>52</v>
@@ -5348,19 +5348,19 @@
         <v>59724</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44216</v>
+        <v>44718</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>77201</v>
+        <v>78415</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01695773550931706</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01255441548224949</v>
+        <v>0.01269694260983298</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02192003054035896</v>
+        <v>0.02226465639938531</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>96</v>
@@ -5369,19 +5369,19 @@
         <v>105130</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>84289</v>
+        <v>83144</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128551</v>
+        <v>126769</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01528168527677613</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01225217120282336</v>
+        <v>0.01208579494738498</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01868603776079086</v>
+        <v>0.01842708863811989</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>515326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>469981</v>
+        <v>475902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555744</v>
+        <v>560787</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1534825724307939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1399773391195039</v>
+        <v>0.1417407396720845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1655205007361276</v>
+        <v>0.1670224655575832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>651</v>
@@ -5419,19 +5419,19 @@
         <v>696948</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>644851</v>
+        <v>649352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>745711</v>
+        <v>748678</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1978869867116808</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1830949380488159</v>
+        <v>0.1843729827447619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.211732323003683</v>
+        <v>0.212574721638393</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1133</v>
@@ -5440,19 +5440,19 @@
         <v>1212274</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1148097</v>
+        <v>1149549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1281362</v>
+        <v>1278047</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1762153323351277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1668866072633037</v>
+        <v>0.1670976861446527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1862578524962626</v>
+        <v>0.1857760594234021</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>375349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>354212</v>
+        <v>353344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>395742</v>
+        <v>395430</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7525955372441447</v>
+        <v>0.7525955372441449</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7102160879473779</v>
+        <v>0.7084739578356655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7934856933056629</v>
+        <v>0.7928594584772261</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>588</v>
@@ -5805,19 +5805,19 @@
         <v>431291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>411286</v>
+        <v>410585</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>450769</v>
+        <v>452053</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6916377203710248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6595562176612233</v>
+        <v>0.6584317737858614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7228732466631633</v>
+        <v>0.7249318214670364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>923</v>
@@ -5826,19 +5826,19 @@
         <v>806641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>778048</v>
+        <v>777094</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>837618</v>
+        <v>836024</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7187263153803776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6932498878990551</v>
+        <v>0.6923994462423356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7463272042736915</v>
+        <v>0.7449068597921742</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>6914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3031</v>
+        <v>2798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13380</v>
+        <v>12956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01386374420362028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0060765043768615</v>
+        <v>0.005609189876913919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02682715874008412</v>
+        <v>0.02597764388487753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -5876,19 +5876,19 @@
         <v>13922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9141</v>
+        <v>9448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21052</v>
+        <v>21502</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0223259011667577</v>
+        <v>0.02232590116675769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01465955772301995</v>
+        <v>0.01515073848726208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03376029251727534</v>
+        <v>0.0344818001032304</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -5897,19 +5897,19 @@
         <v>20836</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13365</v>
+        <v>14469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29163</v>
+        <v>29687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01856546559608876</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01190823467231098</v>
+        <v>0.01289174170659339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02598419958232395</v>
+        <v>0.02645185434660945</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>116476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95031</v>
+        <v>96291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137486</v>
+        <v>137339</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.233540718552235</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1905433472377868</v>
+        <v>0.1930684006657219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2756678442279338</v>
+        <v>0.2753725966578153</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>250</v>
@@ -5947,19 +5947,19 @@
         <v>178367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159173</v>
+        <v>158111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>198437</v>
+        <v>199688</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2860363784622174</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2552567997219634</v>
+        <v>0.2535534697373527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3182224713948998</v>
+        <v>0.3202289821791353</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>363</v>
@@ -5968,19 +5968,19 @@
         <v>294843</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>262721</v>
+        <v>267681</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>321076</v>
+        <v>325312</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2627082190235338</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2340872785497327</v>
+        <v>0.2385067372470968</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.28608208161485</v>
+        <v>0.2898563897107122</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>790377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>763202</v>
+        <v>761707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>813821</v>
+        <v>814738</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.823192376905744</v>
+        <v>0.8231923769057439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7948886541913637</v>
+        <v>0.7933317215397712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8476087786161161</v>
+        <v>0.8485643493733201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1224</v>
@@ -6093,19 +6093,19 @@
         <v>859511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>837865</v>
+        <v>832476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>884472</v>
+        <v>881852</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7711685164684828</v>
+        <v>0.7711685164684823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7517473417145912</v>
+        <v>0.7469124368392686</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7935641053763715</v>
+        <v>0.7912128935564101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1964</v>
@@ -6114,19 +6114,19 @@
         <v>1649888</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1614643</v>
+        <v>1615235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1687805</v>
+        <v>1687084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7952443723151719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7782562992741249</v>
+        <v>0.7785418850037732</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8135202170050089</v>
+        <v>0.8131728150086313</v>
       </c>
     </row>
     <row r="9">
@@ -6143,7 +6143,7 @@
         <v>3284</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1146</v>
+        <v>1267</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>7755</v>
@@ -6152,10 +6152,10 @@
         <v>0.00342003272392043</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001193522515410282</v>
+        <v>0.001319857739129798</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008077389712156385</v>
+        <v>0.008077241956680376</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -6164,19 +6164,19 @@
         <v>9492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4988</v>
+        <v>4889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16517</v>
+        <v>17357</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.008515987756478011</v>
+        <v>0.008515987756478006</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00447501157655859</v>
+        <v>0.0043867485062719</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01481923012257663</v>
+        <v>0.01557302554280379</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -6185,19 +6185,19 @@
         <v>12775</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7520</v>
+        <v>7717</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21301</v>
+        <v>22506</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.006157656834207733</v>
+        <v>0.006157656834207734</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003624587972016393</v>
+        <v>0.003719744338097674</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01026716418865186</v>
+        <v>0.01084788011962209</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>166476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142711</v>
+        <v>141655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194182</v>
+        <v>195560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1733875903703357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1486356501765978</v>
+        <v>0.1475357730034407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2022441889364655</v>
+        <v>0.2036794456659916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>368</v>
@@ -6235,19 +6235,19 @@
         <v>245554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221040</v>
+        <v>223580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>267364</v>
+        <v>272256</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2203154957750394</v>
+        <v>0.2203154957750393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1983213230254564</v>
+        <v>0.2005999571867179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2398835628676137</v>
+        <v>0.2442726688955339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>533</v>
@@ -6256,19 +6256,19 @@
         <v>412030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374177</v>
+        <v>373458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>446306</v>
+        <v>445243</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1985979708506205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1803529133493436</v>
+        <v>0.1800062184647572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2151191995580753</v>
+        <v>0.2146067169979307</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>847921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>820454</v>
+        <v>817745</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>874958</v>
+        <v>876175</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8102608347979507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7840135603394827</v>
+        <v>0.7814248839662258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8360970901712917</v>
+        <v>0.8372596114107701</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1137</v>
@@ -6381,19 +6381,19 @@
         <v>779837</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>755334</v>
+        <v>754717</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>803604</v>
+        <v>802965</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7459571710123356</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7225182277706402</v>
+        <v>0.7219281223567737</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.768691902029631</v>
+        <v>0.7680806076178293</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1972</v>
@@ -6402,19 +6402,19 @@
         <v>1627758</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1585308</v>
+        <v>1590687</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1665647</v>
+        <v>1665020</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7781253200392462</v>
+        <v>0.7781253200392459</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7578328563605203</v>
+        <v>0.7604040816612863</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7962373926860583</v>
+        <v>0.7959379179872328</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>3874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1290</v>
+        <v>1572</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9029</v>
+        <v>8967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003701852744690742</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001232457203238365</v>
+        <v>0.001501762593293013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008628215153060038</v>
+        <v>0.008569065595884807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -6452,19 +6452,19 @@
         <v>4123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8808</v>
+        <v>9518</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.003943704641342513</v>
+        <v>0.003943704641342512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00165663794228498</v>
+        <v>0.001654162894043953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008425094853644496</v>
+        <v>0.009104324812951484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -6473,19 +6473,19 @@
         <v>7997</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3942</v>
+        <v>4030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14613</v>
+        <v>14148</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.003822717322799158</v>
+        <v>0.003822717322799157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00188425867178939</v>
+        <v>0.00192645602955934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006985739362340099</v>
+        <v>0.006763220642572583</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>194684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167455</v>
+        <v>167485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>221717</v>
+        <v>225822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1860373124573586</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1600172860117374</v>
+        <v>0.1600464193946159</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2118691701205436</v>
+        <v>0.215792312332085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>372</v>
@@ -6523,19 +6523,19 @@
         <v>261458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238628</v>
+        <v>239077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>286573</v>
+        <v>287098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2500991243463219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2282608821089273</v>
+        <v>0.2286900118127215</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2741227576828492</v>
+        <v>0.2746248355342357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>561</v>
@@ -6544,19 +6544,19 @@
         <v>456142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>417421</v>
+        <v>420246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>498456</v>
+        <v>492841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2180519626379549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1995418477419237</v>
+        <v>0.2008923620978986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.238279329188424</v>
+        <v>0.2355954121729493</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>741664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>713438</v>
+        <v>705825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>773457</v>
+        <v>767144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7614940946288503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7325136764909438</v>
+        <v>0.7246969546717976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7941366356127986</v>
+        <v>0.7876550728555872</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1053</v>
@@ -6669,19 +6669,19 @@
         <v>697411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>672091</v>
+        <v>672677</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>722042</v>
+        <v>719868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7699422683901772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7419888442867373</v>
+        <v>0.7426358939978683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.797134809083476</v>
+        <v>0.7947357686618713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1794</v>
@@ -6690,19 +6690,19 @@
         <v>1439075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1397868</v>
+        <v>1397449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1476093</v>
+        <v>1474361</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7655650110424885</v>
+        <v>0.7655650110424884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7436439306845122</v>
+        <v>0.7434208948122401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7852579923527321</v>
+        <v>0.7843368053327845</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>6658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2921</v>
+        <v>3392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13163</v>
+        <v>12683</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.006836465479760568</v>
+        <v>0.006836465479760567</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002999394073122281</v>
+        <v>0.003482695141207477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01351534647789094</v>
+        <v>0.01302220934471322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -6740,19 +6740,19 @@
         <v>2712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6874</v>
+        <v>6730</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.002994416896098347</v>
+        <v>0.002994416896098346</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0007603799077640373</v>
+        <v>0.0007432775585305095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.007588548111685311</v>
+        <v>0.007430216532290602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -6761,19 +6761,19 @@
         <v>9371</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4935</v>
+        <v>5358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15770</v>
+        <v>16543</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.004985099837540486</v>
+        <v>0.004985099837540485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002625229638136706</v>
+        <v>0.002850213699478724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008389395518981803</v>
+        <v>0.008800599576760411</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>225637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>193684</v>
+        <v>199940</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>254305</v>
+        <v>261228</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2316694398913891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1988624401430686</v>
+        <v>0.2052863604089097</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2611049043816003</v>
+        <v>0.2682127431239512</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>260</v>
@@ -6811,19 +6811,19 @@
         <v>205673</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>180611</v>
+        <v>183594</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>230055</v>
+        <v>230260</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2270633147137245</v>
+        <v>0.2270633147137244</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1993947782499464</v>
+        <v>0.2026884586108335</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2539807977429939</v>
+        <v>0.2542069862860104</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -6832,19 +6832,19 @@
         <v>431310</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>392925</v>
+        <v>396923</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>470765</v>
+        <v>474187</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.229449889119971</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2090298633463713</v>
+        <v>0.2111566454808021</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2504395737242026</v>
+        <v>0.252259805485285</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2755311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2703848</v>
+        <v>2697401</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2802577</v>
+        <v>2805508</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7919121906724007</v>
+        <v>0.7919121906724009</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7771209405692056</v>
+        <v>0.7752679314144152</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8054969295048133</v>
+        <v>0.8063393836959145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4002</v>
@@ -6957,19 +6957,19 @@
         <v>2768050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2720016</v>
+        <v>2720353</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2814795</v>
+        <v>2813785</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7502811160945998</v>
+        <v>0.7502811160945997</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7372613359168423</v>
+        <v>0.737352796002857</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7629512498686059</v>
+        <v>0.7626775366541684</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6653</v>
@@ -6978,19 +6978,19 @@
         <v>5523362</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5450083</v>
+        <v>5452505</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5597181</v>
+        <v>5598647</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.77048677218353</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7602647430807925</v>
+        <v>0.7606026045138138</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7807843177812129</v>
+        <v>0.7809888318738293</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>20730</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13494</v>
+        <v>14083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31458</v>
+        <v>30946</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0059581977382698</v>
+        <v>0.005958197738269802</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003878301974545131</v>
+        <v>0.004047607093620018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.009041465618810286</v>
+        <v>0.008894340007251955</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -7028,19 +7028,19 @@
         <v>30249</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21754</v>
+        <v>21950</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41020</v>
+        <v>41357</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008198919824765005</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005896492835826717</v>
+        <v>0.005949561754731668</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01111857505949062</v>
+        <v>0.01120970730719693</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -7049,19 +7049,19 @@
         <v>50979</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39756</v>
+        <v>39928</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>63880</v>
+        <v>64312</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007111384604265687</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005545749237466464</v>
+        <v>0.005569779367784675</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008910934439241323</v>
+        <v>0.008971240252675443</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>703272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>657328</v>
+        <v>654119</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>755630</v>
+        <v>759035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2021296115893293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.188924503808277</v>
+        <v>0.1880023056194865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2171779437942903</v>
+        <v>0.2181566051177848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1250</v>
@@ -7099,19 +7099,19 @@
         <v>891052</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>843690</v>
+        <v>845756</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>938243</v>
+        <v>937578</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2415199640806353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2286825865360101</v>
+        <v>0.2292425758340168</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2543110103824843</v>
+        <v>0.2541307583671196</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1914</v>
@@ -7120,19 +7120,19 @@
         <v>1594324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1520758</v>
+        <v>1519044</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1663324</v>
+        <v>1663847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2224018432122042</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2121396484059884</v>
+        <v>0.211900482347858</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2320270039088514</v>
+        <v>0.2321000171034161</v>
       </c>
     </row>
     <row r="23">
